--- a/The Data Science Course 2021 - All Resources/Part_3_Statistics/S17_L98/3.4.Standard-normal-distribution-lesson.xlsx
+++ b/The Data Science Course 2021 - All Resources/Part_3_Statistics/S17_L98/3.4.Standard-normal-distribution-lesson.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 3 - Inferential\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.cintra\Documents\repository\The Data Science Course 2021 - All Resources\Part_3_Statistics\S17_L98\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A2B4CC-5F1C-4FB8-AA27-609D33A249A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12324"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard normal" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +143,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,30 +460,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.85546875" style="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -494,7 +509,7 @@
         <v>-1.6329931618554523</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -528,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>2</v>
       </c>
